--- a/medicine/Mort/Cimetière_de_Bourg-la-Reine/Cimetière_de_Bourg-la-Reine.xlsx
+++ b/medicine/Mort/Cimetière_de_Bourg-la-Reine/Cimetière_de_Bourg-la-Reine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bourg-la-Reine</t>
+          <t>Cimetière_de_Bourg-la-Reine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Bourg-la-Reine est le cimetière communal de la ville de Bourg-la-Reine dans les Hauts-de-Seine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bourg-la-Reine</t>
+          <t>Cimetière_de_Bourg-la-Reine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière a été fondé en 1820[1] et agrandi en 1880. Il accueille notamment plusieurs célébrités de monde littéraire et de la culture, comme Léon Bloy, Françoise Dolto ou le chanteur Carlos. Certaines sépultures sont classées à l'inventaire comme celles de la famille Dupont Couet[2], du maréchal Forey[3], de la famille Angot[4], de la famille Bon[5], de la famille Demmler[6], ou de la famille Hennebique[7]. Le passé horticole et de faïenceries de la ville explique la présence de plusieurs tombes de faïenciers et d'horticulteurs ou rosiéristes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière a été fondé en 1820 et agrandi en 1880. Il accueille notamment plusieurs célébrités de monde littéraire et de la culture, comme Léon Bloy, Françoise Dolto ou le chanteur Carlos. Certaines sépultures sont classées à l'inventaire comme celles de la famille Dupont Couet, du maréchal Forey, de la famille Angot, de la famille Bon, de la famille Demmler, ou de la famille Hennebique. Le passé horticole et de faïenceries de la ville explique la présence de plusieurs tombes de faïenciers et d'horticulteurs ou rosiéristes.
 Le cimetière accueille également Édith Arnold-Boulogne (1911-1995), la mère de l'acteur Alain Delon, dans un caveau familial de la 8e division.
-On y a découvert en 2002 une crypte du Souvenir où reposent 28 militaires et civils de la Première Guerre mondiale, quatre de la Seconde Guerre mondiale et un soldat de la guerre d'Algérie (1954-1962)[8].
+On y a découvert en 2002 une crypte du Souvenir où reposent 28 militaires et civils de la Première Guerre mondiale, quatre de la Seconde Guerre mondiale et un soldat de la guerre d'Algérie (1954-1962).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bourg-la-Reine</t>
+          <t>Cimetière_de_Bourg-la-Reine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hortense Allart de Méritens (1801-1879), femme de lettres (division 7), avec ses deux fils.
 Léon Azéma (1888-1978), architecte, grand prix de Rome en 1930 (division 22).
 Jean-Marie Bastien-Thiry (1927-1963), militaire, auteur de l'attentat du Petit-Clamart contre le général de Gaulle.
 Georges Bénédite (1857-1926), égyptologue (division 3).
-Léon Bloy (1846-1917)[9], écrivain.
+Léon Bloy (1846-1917), écrivain.
 René Bürg (1892-1971), organiste, compositeur, pianiste, violoniste.
 Carlos, nom de scène de Jean-Chrysostome Dolto (1943-2008), chanteur (division 6).
 André Couder (1897-1979), ingénieur-opticien et astronome.
